--- a/data/templates/worklog/02.Slurry.xlsx
+++ b/data/templates/worklog/02.Slurry.xlsx
@@ -5,30 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638E4DC4-FC8B-4894-9AD0-12E730DCED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE8E92-3E99-4FA9-AAC2-6D896768B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17100" yWindow="390" windowWidth="19140" windowHeight="15210" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
+    <workbookView xWindow="5805" yWindow="1365" windowWidth="18735" windowHeight="13965" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">원본!$L$5</definedName>
-    <definedName name="cleanCheck">원본!$G$52</definedName>
-    <definedName name="equipmentCheckResult">원본!$C$50</definedName>
-    <definedName name="equipmentIssue">원본!$K$50</definedName>
-    <definedName name="grindGageFineParticle1">원본!$K$26</definedName>
-    <definedName name="grindGageFineParticle2">원본!$L$26</definedName>
-    <definedName name="grindGageLine1">원본!$K$27</definedName>
-    <definedName name="grindGageLine2">원본!$L$27</definedName>
-    <definedName name="grindGageNonCoating1">원본!$K$28</definedName>
-    <definedName name="grindGageNonCoating2">원본!$L$28</definedName>
-    <definedName name="jigNumber">원본!$G$50</definedName>
+    <definedName name="binderSolution">원본!$K$20</definedName>
+    <definedName name="binderSolutionActualInput">원본!$I$20</definedName>
+    <definedName name="binderSolutionComposition">원본!$C$20</definedName>
+    <definedName name="binderSolutionLot">원본!$E$20</definedName>
+    <definedName name="binderSolutionPlannedInput">원본!$G$20</definedName>
+    <definedName name="cleanCheck">원본!$G$53</definedName>
+    <definedName name="equipmentCheckResult">원본!$C$51</definedName>
+    <definedName name="equipmentIssue">원본!$K$51</definedName>
+    <definedName name="grindGageFineParticle1">원본!$K$27</definedName>
+    <definedName name="grindGageFineParticle2">원본!$L$27</definedName>
+    <definedName name="grindGageLine1">원본!$K$28</definedName>
+    <definedName name="grindGageLine2">원본!$L$28</definedName>
+    <definedName name="grindGageNonCoating1">원본!$K$29</definedName>
+    <definedName name="grindGageNonCoating2">원본!$L$29</definedName>
+    <definedName name="jigNumber">원본!$G$51</definedName>
     <definedName name="line">원본!$C$9</definedName>
-    <definedName name="lot">원본!$C$23</definedName>
+    <definedName name="lot">원본!$C$24</definedName>
     <definedName name="manufactureDate">원본!$C$7</definedName>
     <definedName name="material1ActualInput">원본!$I$14</definedName>
     <definedName name="material1Composition">원본!$C$14</definedName>
@@ -60,181 +65,175 @@
     <definedName name="material6Lot">원본!$E$19</definedName>
     <definedName name="material6Name">원본!$A$19</definedName>
     <definedName name="material6PlannedInput">원본!$G$19</definedName>
-    <definedName name="material7ActualInput">원본!$I$20</definedName>
-    <definedName name="material7Composition">원본!$C$20</definedName>
-    <definedName name="material7Lot">원본!$E$20</definedName>
-    <definedName name="material7Name">원본!$A$20</definedName>
-    <definedName name="material7PlannedInput">원본!$G$20</definedName>
-    <definedName name="material8ActualInput">원본!$I$21</definedName>
-    <definedName name="material8Composition">원본!$C$21</definedName>
-    <definedName name="material8Lot">원본!$E$21</definedName>
-    <definedName name="material8Name">원본!$A$21</definedName>
-    <definedName name="material8PlannedInput">원본!$G$21</definedName>
-    <definedName name="pdMixer1EndTime1">원본!$L$32</definedName>
-    <definedName name="pdMixer1EndTime2">원본!$L$33</definedName>
-    <definedName name="pdMixer1EndTime3">원본!$L$34</definedName>
-    <definedName name="pdMixer1EndTime4">원본!$L$35</definedName>
-    <definedName name="pdMixer1EndTime5">원본!$L$36</definedName>
-    <definedName name="pdMixer1EndTime6">원본!$L$37</definedName>
-    <definedName name="pdMixer1EndTime7">원본!$L$38</definedName>
-    <definedName name="pdMixer1Input1">원본!$E$32</definedName>
-    <definedName name="pdMixer1Input2">원본!$E$33</definedName>
-    <definedName name="pdMixer1Input3">원본!$E$34</definedName>
-    <definedName name="pdMixer1Input4">원본!$E$35</definedName>
-    <definedName name="pdMixer1Input5">원본!$E$36</definedName>
-    <definedName name="pdMixer1Input6">원본!$E$37</definedName>
-    <definedName name="pdMixer1Input7">원본!$E$38</definedName>
-    <definedName name="pdMixer1InputRate1">원본!$F$32</definedName>
-    <definedName name="pdMixer1InputRate2">원본!$F$33</definedName>
-    <definedName name="pdMixer1InputRate3">원본!$F$34</definedName>
-    <definedName name="pdMixer1InputRate4">원본!$F$35</definedName>
-    <definedName name="pdMixer1InputRate5">원본!$F$36</definedName>
-    <definedName name="pdMixer1InputRate6">원본!$F$37</definedName>
-    <definedName name="pdMixer1InputRate7">원본!$F$38</definedName>
-    <definedName name="pdMixer1Name">원본!$A$32</definedName>
-    <definedName name="pdMixer1RpmHigh1">원본!$J$32</definedName>
-    <definedName name="pdMixer1RpmHigh2">원본!$J$33</definedName>
-    <definedName name="pdMixer1RpmHigh3">원본!$J$34</definedName>
-    <definedName name="pdMixer1RpmHigh4">원본!$J$35</definedName>
-    <definedName name="pdMixer1RpmHigh5">원본!$J$36</definedName>
-    <definedName name="pdMixer1RpmHigh6">원본!$J$37</definedName>
-    <definedName name="pdMixer1RpmHigh7">원본!$J$38</definedName>
-    <definedName name="pdMixer1RpmLow1">원본!$I$32</definedName>
-    <definedName name="pdMixer1RpmLow2">원본!$I$33</definedName>
-    <definedName name="pdMixer1RpmLow3">원본!$I$34</definedName>
-    <definedName name="pdMixer1RpmLow4">원본!$I$35</definedName>
-    <definedName name="pdMixer1RpmLow5">원본!$I$36</definedName>
-    <definedName name="pdMixer1RpmLow6">원본!$I$37</definedName>
-    <definedName name="pdMixer1RpmLow7">원본!$I$38</definedName>
-    <definedName name="pdMixer1SolidContent1">원본!$G$32</definedName>
-    <definedName name="pdMixer1SolidContent2">원본!$G$33</definedName>
-    <definedName name="pdMixer1SolidContent3">원본!$G$34</definedName>
-    <definedName name="pdMixer1SolidContent4">원본!$G$35</definedName>
-    <definedName name="pdMixer1SolidContent5">원본!$G$36</definedName>
-    <definedName name="pdMixer1SolidContent6">원본!$G$37</definedName>
-    <definedName name="pdMixer1SolidContent7">원본!$G$38</definedName>
-    <definedName name="pdMixer1StartTime1">원본!$K$32</definedName>
-    <definedName name="pdMixer1StartTime2">원본!$K$33</definedName>
-    <definedName name="pdMixer1StartTime3">원본!$K$34</definedName>
-    <definedName name="pdMixer1StartTime4">원본!$K$35</definedName>
-    <definedName name="pdMixer1StartTime5">원본!$K$36</definedName>
-    <definedName name="pdMixer1StartTime6">원본!$K$37</definedName>
-    <definedName name="pdMixer1StartTime7">원본!$K$38</definedName>
-    <definedName name="pdMixer1Temp1">원본!$H$32</definedName>
-    <definedName name="pdMixer1Temp2">원본!$H$33</definedName>
-    <definedName name="pdMixer1Temp3">원본!$H$34</definedName>
-    <definedName name="pdMixer1Temp4">원본!$H$35</definedName>
-    <definedName name="pdMixer1Temp5">원본!$H$36</definedName>
-    <definedName name="pdMixer1Temp6">원본!$H$37</definedName>
-    <definedName name="pdMixer1Temp7">원본!$H$38</definedName>
-    <definedName name="pdMixer2EndTime1">원본!$L$40</definedName>
-    <definedName name="pdMixer2EndTime2">원본!$L$41</definedName>
-    <definedName name="pdMixer2EndTime3">원본!$L$42</definedName>
-    <definedName name="pdMixer2EndTime4">원본!$L$43</definedName>
-    <definedName name="pdMixer2EndTime5">원본!$L$44</definedName>
-    <definedName name="pdMixer2Input1">원본!$E$40</definedName>
-    <definedName name="pdMixer2Input2">원본!$E$41</definedName>
-    <definedName name="pdMixer2Input3">원본!$E$42</definedName>
-    <definedName name="pdMixer2Input4">원본!$E$43</definedName>
-    <definedName name="pdMixer2Input5">원본!$E$44</definedName>
-    <definedName name="pdMixer2InputRate1">원본!$F$40</definedName>
-    <definedName name="pdMixer2InputRate2">원본!$F$41</definedName>
-    <definedName name="pdMixer2InputRate3">원본!$F$42</definedName>
-    <definedName name="pdMixer2InputRate4">원본!$F$43</definedName>
-    <definedName name="pdMixer2InputRate5">원본!$F$44</definedName>
-    <definedName name="pdMixer2Name">원본!$A$40</definedName>
-    <definedName name="pdMixer2RpmHigh1">원본!$J$40</definedName>
-    <definedName name="pdMixer2RpmHigh2">원본!$J$41</definedName>
-    <definedName name="pdMixer2RpmHigh3">원본!$J$42</definedName>
-    <definedName name="pdMixer2RpmHigh4">원본!$J$43</definedName>
-    <definedName name="pdMixer2RpmHigh5">원본!$J$44</definedName>
-    <definedName name="pdMixer2RpmLow1">원본!$I$40</definedName>
-    <definedName name="pdMixer2RpmLow2">원본!$I$41</definedName>
-    <definedName name="pdMixer2RpmLow3">원본!$I$42</definedName>
-    <definedName name="pdMixer2RpmLow4">원본!$I$43</definedName>
-    <definedName name="pdMixer2RpmLow5">원본!$I$44</definedName>
-    <definedName name="pdMixer2SolidContent1">원본!$G$40</definedName>
-    <definedName name="pdMixer2SolidContent2">원본!$G$41</definedName>
-    <definedName name="pdMixer2SolidContent3">원본!$G$42</definedName>
-    <definedName name="pdMixer2SolidContent4">원본!$G$43</definedName>
-    <definedName name="pdMixer2SolidContent5">원본!$G$44</definedName>
-    <definedName name="pdMixer2StartTime1">원본!$K$40</definedName>
-    <definedName name="pdMixer2StartTime2">원본!$K$41</definedName>
-    <definedName name="pdMixer2StartTime3">원본!$K$42</definedName>
-    <definedName name="pdMixer2StartTime4">원본!$K$43</definedName>
-    <definedName name="pdMixer2StartTime5">원본!$K$44</definedName>
-    <definedName name="pdMixer2Temp1">원본!$H$40</definedName>
-    <definedName name="pdMixer2Temp2">원본!$H$41</definedName>
-    <definedName name="pdMixer2Temp3">원본!$H$42</definedName>
-    <definedName name="pdMixer2Temp4">원본!$H$43</definedName>
-    <definedName name="pdMixer2Temp5">원본!$H$44</definedName>
-    <definedName name="pdMixer3EndTime1">원본!$L$46</definedName>
-    <definedName name="pdMixer3Input1">원본!$E$46</definedName>
-    <definedName name="pdMixer3InputRate1">원본!$F$46</definedName>
-    <definedName name="pdMixer3Name">원본!$A$46</definedName>
-    <definedName name="pdMixer3RpmHigh1">원본!$J$46</definedName>
-    <definedName name="pdMixer3RpmLow1">원본!$I$46</definedName>
-    <definedName name="pdMixer3SolidContent1">원본!$G$46</definedName>
-    <definedName name="pdMixer3StartTime1">원본!$K$46</definedName>
-    <definedName name="pdMixer3Temp1">원본!$H$46</definedName>
-    <definedName name="pdMixer4EndTime1">원본!$L$48</definedName>
-    <definedName name="pdMixer4Input1">원본!$E$48</definedName>
-    <definedName name="pdMixer4InputRate1">원본!$F$48</definedName>
-    <definedName name="pdMixer4Name">원본!$A$48</definedName>
-    <definedName name="pdMixer4RpmHigh1">원본!$J$48</definedName>
-    <definedName name="pdMixer4RpmLow1">원본!$I$48</definedName>
-    <definedName name="pdMixer4SolidContent1">원본!$G$48</definedName>
-    <definedName name="pdMixer4StartTime1">원본!$K$48</definedName>
-    <definedName name="pdMixer4Temp1">원본!$H$48</definedName>
+    <definedName name="pdMixer1EndTime1">원본!$L$33</definedName>
+    <definedName name="pdMixer1EndTime2">원본!$L$34</definedName>
+    <definedName name="pdMixer1EndTime3">원본!$L$35</definedName>
+    <definedName name="pdMixer1EndTime4">원본!$L$36</definedName>
+    <definedName name="pdMixer1EndTime5">원본!$L$37</definedName>
+    <definedName name="pdMixer1EndTime6">원본!$L$38</definedName>
+    <definedName name="pdMixer1EndTime7">원본!$L$39</definedName>
+    <definedName name="pdMixer1Input1">원본!$E$33</definedName>
+    <definedName name="pdMixer1Input2">원본!$E$34</definedName>
+    <definedName name="pdMixer1Input3">원본!$E$35</definedName>
+    <definedName name="pdMixer1Input4">원본!$E$36</definedName>
+    <definedName name="pdMixer1Input5">원본!$E$37</definedName>
+    <definedName name="pdMixer1Input6">원본!$E$38</definedName>
+    <definedName name="pdMixer1Input7">원본!$E$39</definedName>
+    <definedName name="pdMixer1InputRate1">원본!$F$33</definedName>
+    <definedName name="pdMixer1InputRate2">원본!$F$34</definedName>
+    <definedName name="pdMixer1InputRate3">원본!$F$35</definedName>
+    <definedName name="pdMixer1InputRate4">원본!$F$36</definedName>
+    <definedName name="pdMixer1InputRate5">원본!$F$37</definedName>
+    <definedName name="pdMixer1InputRate6">원본!$F$38</definedName>
+    <definedName name="pdMixer1InputRate7">원본!$F$39</definedName>
+    <definedName name="pdMixer1Name">원본!$A$33</definedName>
+    <definedName name="pdMixer1RpmHigh1">원본!$J$33</definedName>
+    <definedName name="pdMixer1RpmHigh2">원본!$J$34</definedName>
+    <definedName name="pdMixer1RpmHigh3">원본!$J$35</definedName>
+    <definedName name="pdMixer1RpmHigh4">원본!$J$36</definedName>
+    <definedName name="pdMixer1RpmHigh5">원본!$J$37</definedName>
+    <definedName name="pdMixer1RpmHigh6">원본!$J$38</definedName>
+    <definedName name="pdMixer1RpmHigh7">원본!$J$39</definedName>
+    <definedName name="pdMixer1RpmLow1">원본!$I$33</definedName>
+    <definedName name="pdMixer1RpmLow2">원본!$I$34</definedName>
+    <definedName name="pdMixer1RpmLow3">원본!$I$35</definedName>
+    <definedName name="pdMixer1RpmLow4">원본!$I$36</definedName>
+    <definedName name="pdMixer1RpmLow5">원본!$I$37</definedName>
+    <definedName name="pdMixer1RpmLow6">원본!$I$38</definedName>
+    <definedName name="pdMixer1RpmLow7">원본!$I$39</definedName>
+    <definedName name="pdMixer1SolidContent1">원본!$G$33</definedName>
+    <definedName name="pdMixer1SolidContent2">원본!$G$34</definedName>
+    <definedName name="pdMixer1SolidContent3">원본!$G$35</definedName>
+    <definedName name="pdMixer1SolidContent4">원본!$G$36</definedName>
+    <definedName name="pdMixer1SolidContent5">원본!$G$37</definedName>
+    <definedName name="pdMixer1SolidContent6">원본!$G$38</definedName>
+    <definedName name="pdMixer1SolidContent7">원본!$G$39</definedName>
+    <definedName name="pdMixer1StartTime1">원본!$K$33</definedName>
+    <definedName name="pdMixer1StartTime2">원본!$K$34</definedName>
+    <definedName name="pdMixer1StartTime3">원본!$K$35</definedName>
+    <definedName name="pdMixer1StartTime4">원본!$K$36</definedName>
+    <definedName name="pdMixer1StartTime5">원본!$K$37</definedName>
+    <definedName name="pdMixer1StartTime6">원본!$K$38</definedName>
+    <definedName name="pdMixer1StartTime7">원본!$K$39</definedName>
+    <definedName name="pdMixer1Temp1">원본!$H$33</definedName>
+    <definedName name="pdMixer1Temp2">원본!$H$34</definedName>
+    <definedName name="pdMixer1Temp3">원본!$H$35</definedName>
+    <definedName name="pdMixer1Temp4">원본!$H$36</definedName>
+    <definedName name="pdMixer1Temp5">원본!$H$37</definedName>
+    <definedName name="pdMixer1Temp6">원본!$H$38</definedName>
+    <definedName name="pdMixer1Temp7">원본!$H$39</definedName>
+    <definedName name="pdMixer2EndTime1">원본!$L$41</definedName>
+    <definedName name="pdMixer2EndTime2">원본!$L$42</definedName>
+    <definedName name="pdMixer2EndTime3">원본!$L$43</definedName>
+    <definedName name="pdMixer2EndTime4">원본!$L$44</definedName>
+    <definedName name="pdMixer2EndTime5">원본!$L$45</definedName>
+    <definedName name="pdMixer2Input1">원본!$E$41</definedName>
+    <definedName name="pdMixer2Input2">원본!$E$42</definedName>
+    <definedName name="pdMixer2Input3">원본!$E$43</definedName>
+    <definedName name="pdMixer2Input4">원본!$E$44</definedName>
+    <definedName name="pdMixer2Input5">원본!$E$45</definedName>
+    <definedName name="pdMixer2InputRate1">원본!$F$41</definedName>
+    <definedName name="pdMixer2InputRate2">원본!$F$42</definedName>
+    <definedName name="pdMixer2InputRate3">원본!$F$43</definedName>
+    <definedName name="pdMixer2InputRate4">원본!$F$44</definedName>
+    <definedName name="pdMixer2InputRate5">원본!$F$45</definedName>
+    <definedName name="pdMixer2Name">원본!$A$41</definedName>
+    <definedName name="pdMixer2RpmHigh1">원본!$J$41</definedName>
+    <definedName name="pdMixer2RpmHigh2">원본!$J$42</definedName>
+    <definedName name="pdMixer2RpmHigh3">원본!$J$43</definedName>
+    <definedName name="pdMixer2RpmHigh4">원본!$J$44</definedName>
+    <definedName name="pdMixer2RpmHigh5">원본!$J$45</definedName>
+    <definedName name="pdMixer2RpmLow1">원본!$I$41</definedName>
+    <definedName name="pdMixer2RpmLow2">원본!$I$42</definedName>
+    <definedName name="pdMixer2RpmLow3">원본!$I$43</definedName>
+    <definedName name="pdMixer2RpmLow4">원본!$I$44</definedName>
+    <definedName name="pdMixer2RpmLow5">원본!$I$45</definedName>
+    <definedName name="pdMixer2SolidContent1">원본!$G$41</definedName>
+    <definedName name="pdMixer2SolidContent2">원본!$G$42</definedName>
+    <definedName name="pdMixer2SolidContent3">원본!$G$43</definedName>
+    <definedName name="pdMixer2SolidContent4">원본!$G$44</definedName>
+    <definedName name="pdMixer2SolidContent5">원본!$G$45</definedName>
+    <definedName name="pdMixer2StartTime1">원본!$K$41</definedName>
+    <definedName name="pdMixer2StartTime2">원본!$K$42</definedName>
+    <definedName name="pdMixer2StartTime3">원본!$K$43</definedName>
+    <definedName name="pdMixer2StartTime4">원본!$K$44</definedName>
+    <definedName name="pdMixer2StartTime5">원본!$K$45</definedName>
+    <definedName name="pdMixer2Temp1">원본!$H$41</definedName>
+    <definedName name="pdMixer2Temp2">원본!$H$42</definedName>
+    <definedName name="pdMixer2Temp3">원본!$H$43</definedName>
+    <definedName name="pdMixer2Temp4">원본!$H$44</definedName>
+    <definedName name="pdMixer2Temp5">원본!$H$45</definedName>
+    <definedName name="pdMixer3EndTime1">원본!$L$47</definedName>
+    <definedName name="pdMixer3Input1">원본!$E$47</definedName>
+    <definedName name="pdMixer3InputRate1">원본!$F$47</definedName>
+    <definedName name="pdMixer3Name">원본!$A$47</definedName>
+    <definedName name="pdMixer3RpmHigh1">원본!$J$47</definedName>
+    <definedName name="pdMixer3RpmLow1">원본!$I$47</definedName>
+    <definedName name="pdMixer3SolidContent1">원본!$G$47</definedName>
+    <definedName name="pdMixer3StartTime1">원본!$K$47</definedName>
+    <definedName name="pdMixer3Temp1">원본!$H$47</definedName>
+    <definedName name="pdMixer4EndTime1">원본!$L$49</definedName>
+    <definedName name="pdMixer4Input1">원본!$E$49</definedName>
+    <definedName name="pdMixer4InputRate1">원본!$F$49</definedName>
+    <definedName name="pdMixer4Name">원본!$A$49</definedName>
+    <definedName name="pdMixer4RpmHigh1">원본!$J$49</definedName>
+    <definedName name="pdMixer4RpmLow1">원본!$I$49</definedName>
+    <definedName name="pdMixer4SolidContent1">원본!$G$49</definedName>
+    <definedName name="pdMixer4StartTime1">원본!$K$49</definedName>
+    <definedName name="pdMixer4Temp1">원본!$H$49</definedName>
     <definedName name="plant">원본!$G$9</definedName>
     <definedName name="productionId">원본!$G$7</definedName>
-    <definedName name="remark">원본!$A$54</definedName>
+    <definedName name="remark">원본!$A$55</definedName>
     <definedName name="reviewer">원본!$K$5</definedName>
-    <definedName name="safety">원본!$K$52</definedName>
+    <definedName name="safety">원본!$K$53</definedName>
     <definedName name="shift">원본!$K$9</definedName>
     <definedName name="solidContent">원본!$K$14</definedName>
-    <definedName name="solidContent1Dish">원본!$F$26</definedName>
-    <definedName name="solidContent1Dry">원본!$H$26</definedName>
-    <definedName name="solidContent1Percentage">원본!$I$26</definedName>
-    <definedName name="solidContent1Slurry">원본!$G$26</definedName>
-    <definedName name="solidContent2Dish">원본!$F$27</definedName>
-    <definedName name="solidContent2Dry">원본!$H$27</definedName>
-    <definedName name="solidContent2Percentage">원본!$I$27</definedName>
-    <definedName name="solidContent2Slurry">원본!$G$27</definedName>
-    <definedName name="solidContent3Dish">원본!$F$28</definedName>
-    <definedName name="solidContent3Dry">원본!$H$28</definedName>
-    <definedName name="solidContent3Percentage">원본!$I$28</definedName>
-    <definedName name="solidContent3Slurry">원본!$G$28</definedName>
-    <definedName name="tempHumi">원본!$C$52</definedName>
-    <definedName name="viscometer1EndTime">원본!$L$39</definedName>
-    <definedName name="viscometer1Input">원본!$E$39</definedName>
-    <definedName name="viscometer1InputRate">원본!$F$39</definedName>
-    <definedName name="viscometer1RpmHigh">원본!$J$39</definedName>
-    <definedName name="viscometer1RpmLow">원본!$I$39</definedName>
-    <definedName name="viscometer1SolidContent">원본!$G$39</definedName>
-    <definedName name="viscometer1StartTime">원본!$K$39</definedName>
-    <definedName name="viscometer1Temp">원본!$H$39</definedName>
-    <definedName name="viscometer2EndTime">원본!$L$45</definedName>
-    <definedName name="viscometer2Input">원본!$E$45</definedName>
-    <definedName name="viscometer2InputRate">원본!$F$45</definedName>
-    <definedName name="viscometer2RpmHigh">원본!$J$45</definedName>
-    <definedName name="viscometer2RpmLow">원본!$I$45</definedName>
-    <definedName name="viscometer2SolidContent">원본!$G$45</definedName>
-    <definedName name="viscometer2StartTime">원본!$K$45</definedName>
-    <definedName name="viscometer2Temp">원본!$H$45</definedName>
-    <definedName name="viscometer3EndTime">원본!$L$47</definedName>
-    <definedName name="viscometer3Input">원본!$E$47</definedName>
-    <definedName name="viscometer3InputRate">원본!$F$47</definedName>
-    <definedName name="viscometer3RpmHigh">원본!$J$47</definedName>
-    <definedName name="viscometer3RpmLow">원본!$I$47</definedName>
-    <definedName name="viscometer3SolidContent">원본!$G$47</definedName>
-    <definedName name="viscometer3StartTime">원본!$K$47</definedName>
-    <definedName name="viscometer3Temp">원본!$H$47</definedName>
-    <definedName name="viscosity4Label">원본!$B$28</definedName>
-    <definedName name="viscosity4Value">원본!$C$28</definedName>
-    <definedName name="viscosityAfterDefoaming">원본!$C$26</definedName>
-    <definedName name="viscosityAfterMixing">원본!$C$25</definedName>
-    <definedName name="viscosityAfterStabilization">원본!$C$27</definedName>
+    <definedName name="solidContent1Dish">원본!$F$27</definedName>
+    <definedName name="solidContent1Dry">원본!$H$27</definedName>
+    <definedName name="solidContent1Percentage">원본!$I$27</definedName>
+    <definedName name="solidContent1Slurry">원본!$G$27</definedName>
+    <definedName name="solidContent2Dish">원본!$F$28</definedName>
+    <definedName name="solidContent2Dry">원본!$H$28</definedName>
+    <definedName name="solidContent2Percentage">원본!$I$28</definedName>
+    <definedName name="solidContent2Slurry">원본!$G$28</definedName>
+    <definedName name="solidContent3Dish">원본!$F$29</definedName>
+    <definedName name="solidContent3Dry">원본!$H$29</definedName>
+    <definedName name="solidContent3Percentage">원본!$I$29</definedName>
+    <definedName name="solidContent3Slurry">원본!$G$29</definedName>
+    <definedName name="solventAddActualInput">원본!$I$21</definedName>
+    <definedName name="solventAddPlannedInput">원본!$G$21</definedName>
+    <definedName name="solventTotalActualInput">원본!$I$22</definedName>
+    <definedName name="solventTotalPlannedInput">원본!$G$22</definedName>
+    <definedName name="tempHumi">원본!$C$53</definedName>
+    <definedName name="viscometer1EndTime">원본!$L$40</definedName>
+    <definedName name="viscometer1Input">원본!$E$40</definedName>
+    <definedName name="viscometer1InputRate">원본!$F$40</definedName>
+    <definedName name="viscometer1RpmHigh">원본!$J$40</definedName>
+    <definedName name="viscometer1RpmLow">원본!$I$40</definedName>
+    <definedName name="viscometer1SolidContent">원본!$G$40</definedName>
+    <definedName name="viscometer1StartTime">원본!$K$40</definedName>
+    <definedName name="viscometer1Temp">원본!$H$40</definedName>
+    <definedName name="viscometer2EndTime">원본!$L$46</definedName>
+    <definedName name="viscometer2Input">원본!$E$46</definedName>
+    <definedName name="viscometer2InputRate">원본!$F$46</definedName>
+    <definedName name="viscometer2RpmHigh">원본!$J$46</definedName>
+    <definedName name="viscometer2RpmLow">원본!$I$46</definedName>
+    <definedName name="viscometer2SolidContent">원본!$G$46</definedName>
+    <definedName name="viscometer2StartTime">원본!$K$46</definedName>
+    <definedName name="viscometer2Temp">원본!$H$46</definedName>
+    <definedName name="viscometer3EndTime">원본!$L$48</definedName>
+    <definedName name="viscometer3Input">원본!$E$48</definedName>
+    <definedName name="viscometer3InputRate">원본!$F$48</definedName>
+    <definedName name="viscometer3RpmHigh">원본!$J$48</definedName>
+    <definedName name="viscometer3RpmLow">원본!$I$48</definedName>
+    <definedName name="viscometer3SolidContent">원본!$G$48</definedName>
+    <definedName name="viscometer3StartTime">원본!$K$48</definedName>
+    <definedName name="viscometer3Temp">원본!$H$48</definedName>
+    <definedName name="viscosity4Label">원본!$B$29</definedName>
+    <definedName name="viscosity4Value">원본!$C$29</definedName>
+    <definedName name="viscosityAfterDefoaming">원본!$C$27</definedName>
+    <definedName name="viscosityAfterMixing">원본!$C$26</definedName>
+    <definedName name="viscosityAfterStabilization">원본!$C$28</definedName>
     <definedName name="worker">원본!$K$7</definedName>
     <definedName name="writer">원본!$J$5</definedName>
   </definedNames>
@@ -259,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>슬러리 믹싱 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -550,6 +549,26 @@
   </si>
   <si>
     <t>이상없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바인더용액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binder Solution (%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +876,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,16 +945,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -971,34 +1008,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,10 +1355,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,17 +1367,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1376,554 +1389,560 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="37" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="37" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="37" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="25" t="s">
+      <c r="J9" s="43"/>
+      <c r="K9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="A20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="A21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="25"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="34" t="s">
+      <c r="D31" s="45"/>
+      <c r="E31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F31" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G31" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H31" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I31" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36" t="s">
+      <c r="J31" s="42"/>
+      <c r="K31" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="4" t="s">
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>50</v>
@@ -1938,8 +1957,8 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
@@ -1956,10 +1975,10 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>50</v>
@@ -1974,8 +1993,8 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1992,10 +2011,10 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>50</v>
@@ -2010,12 +2029,14 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="27"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2026,43 +2047,41 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="27"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="33"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="33"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
@@ -2079,8 +2098,8 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
@@ -2097,8 +2116,8 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,12 +2134,14 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="27"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2131,14 +2152,12 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="27"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="33"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2149,12 +2168,14 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="25"/>
+      <c r="A46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="33"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2165,14 +2186,12 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="27"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2183,12 +2202,14 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="29"/>
+      <c r="A48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="33"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2199,203 +2220,219 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="24" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22" t="s">
+      <c r="D51" s="30"/>
+      <c r="E51" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="22" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="24" t="s">
+      <c r="J51" s="11"/>
+      <c r="K51" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L50" s="23"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22" t="s">
+      <c r="D53" s="30"/>
+      <c r="E53" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="22" t="s">
+      <c r="H53" s="30"/>
+      <c r="I53" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="22"/>
-      <c r="K52" s="23" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L52" s="23"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="21"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="12"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="15"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="15"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="15"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="15"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="15"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="18"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="119">
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
@@ -2419,10 +2456,6 @@
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A11:L11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A14:B14"/>
@@ -2434,28 +2467,13 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K14:L21"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -2466,54 +2484,77 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A33:B39"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="A55:L61"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="A54:L60"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="K14:L17"/>
+    <mergeCell ref="K20:L22"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/templates/worklog/02.Slurry.xlsx
+++ b/data/templates/worklog/02.Slurry.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE8E92-3E99-4FA9-AAC2-6D896768B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8EBA8-FD76-4559-8E9E-0A8C304331CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1365" windowWidth="18735" windowHeight="13965" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">원본!$L$5</definedName>
-    <definedName name="binderSolution">원본!$K$20</definedName>
-    <definedName name="binderSolutionActualInput">원본!$I$20</definedName>
-    <definedName name="binderSolutionComposition">원본!$C$20</definedName>
-    <definedName name="binderSolutionLot">원본!$E$20</definedName>
-    <definedName name="binderSolutionPlannedInput">원본!$G$20</definedName>
-    <definedName name="cleanCheck">원본!$G$53</definedName>
-    <definedName name="equipmentCheckResult">원본!$C$51</definedName>
-    <definedName name="equipmentIssue">원본!$K$51</definedName>
-    <definedName name="grindGageFineParticle1">원본!$K$27</definedName>
-    <definedName name="grindGageFineParticle2">원본!$L$27</definedName>
-    <definedName name="grindGageLine1">원본!$K$28</definedName>
-    <definedName name="grindGageLine2">원본!$L$28</definedName>
-    <definedName name="grindGageNonCoating1">원본!$K$29</definedName>
-    <definedName name="grindGageNonCoating2">원본!$L$29</definedName>
-    <definedName name="jigNumber">원본!$G$51</definedName>
+    <definedName name="binderSolution">원본!$K$19</definedName>
+    <definedName name="cleanCheck">원본!$G$52</definedName>
+    <definedName name="equipmentCheckResult">원본!$C$50</definedName>
+    <definedName name="equipmentIssue">원본!$K$50</definedName>
+    <definedName name="grindGageFineParticle1">원본!$K$26</definedName>
+    <definedName name="grindGageFineParticle2">원본!$L$26</definedName>
+    <definedName name="grindGageLine1">원본!$K$27</definedName>
+    <definedName name="grindGageLine2">원본!$L$27</definedName>
+    <definedName name="grindGageNonCoating1">원본!$K$28</definedName>
+    <definedName name="grindGageNonCoating2">원본!$L$28</definedName>
+    <definedName name="jigNumber">원본!$G$50</definedName>
     <definedName name="line">원본!$C$9</definedName>
-    <definedName name="lot">원본!$C$24</definedName>
+    <definedName name="lot">원본!$C$23</definedName>
     <definedName name="manufactureDate">원본!$C$7</definedName>
     <definedName name="material1ActualInput">원본!$I$14</definedName>
     <definedName name="material1Composition">원본!$C$14</definedName>
@@ -65,175 +61,175 @@
     <definedName name="material6Lot">원본!$E$19</definedName>
     <definedName name="material6Name">원본!$A$19</definedName>
     <definedName name="material6PlannedInput">원본!$G$19</definedName>
-    <definedName name="pdMixer1EndTime1">원본!$L$33</definedName>
-    <definedName name="pdMixer1EndTime2">원본!$L$34</definedName>
-    <definedName name="pdMixer1EndTime3">원본!$L$35</definedName>
-    <definedName name="pdMixer1EndTime4">원본!$L$36</definedName>
-    <definedName name="pdMixer1EndTime5">원본!$L$37</definedName>
-    <definedName name="pdMixer1EndTime6">원본!$L$38</definedName>
-    <definedName name="pdMixer1EndTime7">원본!$L$39</definedName>
-    <definedName name="pdMixer1Input1">원본!$E$33</definedName>
-    <definedName name="pdMixer1Input2">원본!$E$34</definedName>
-    <definedName name="pdMixer1Input3">원본!$E$35</definedName>
-    <definedName name="pdMixer1Input4">원본!$E$36</definedName>
-    <definedName name="pdMixer1Input5">원본!$E$37</definedName>
-    <definedName name="pdMixer1Input6">원본!$E$38</definedName>
-    <definedName name="pdMixer1Input7">원본!$E$39</definedName>
-    <definedName name="pdMixer1InputRate1">원본!$F$33</definedName>
-    <definedName name="pdMixer1InputRate2">원본!$F$34</definedName>
-    <definedName name="pdMixer1InputRate3">원본!$F$35</definedName>
-    <definedName name="pdMixer1InputRate4">원본!$F$36</definedName>
-    <definedName name="pdMixer1InputRate5">원본!$F$37</definedName>
-    <definedName name="pdMixer1InputRate6">원본!$F$38</definedName>
-    <definedName name="pdMixer1InputRate7">원본!$F$39</definedName>
-    <definedName name="pdMixer1Name">원본!$A$33</definedName>
-    <definedName name="pdMixer1RpmHigh1">원본!$J$33</definedName>
-    <definedName name="pdMixer1RpmHigh2">원본!$J$34</definedName>
-    <definedName name="pdMixer1RpmHigh3">원본!$J$35</definedName>
-    <definedName name="pdMixer1RpmHigh4">원본!$J$36</definedName>
-    <definedName name="pdMixer1RpmHigh5">원본!$J$37</definedName>
-    <definedName name="pdMixer1RpmHigh6">원본!$J$38</definedName>
-    <definedName name="pdMixer1RpmHigh7">원본!$J$39</definedName>
-    <definedName name="pdMixer1RpmLow1">원본!$I$33</definedName>
-    <definedName name="pdMixer1RpmLow2">원본!$I$34</definedName>
-    <definedName name="pdMixer1RpmLow3">원본!$I$35</definedName>
-    <definedName name="pdMixer1RpmLow4">원본!$I$36</definedName>
-    <definedName name="pdMixer1RpmLow5">원본!$I$37</definedName>
-    <definedName name="pdMixer1RpmLow6">원본!$I$38</definedName>
-    <definedName name="pdMixer1RpmLow7">원본!$I$39</definedName>
-    <definedName name="pdMixer1SolidContent1">원본!$G$33</definedName>
-    <definedName name="pdMixer1SolidContent2">원본!$G$34</definedName>
-    <definedName name="pdMixer1SolidContent3">원본!$G$35</definedName>
-    <definedName name="pdMixer1SolidContent4">원본!$G$36</definedName>
-    <definedName name="pdMixer1SolidContent5">원본!$G$37</definedName>
-    <definedName name="pdMixer1SolidContent6">원본!$G$38</definedName>
-    <definedName name="pdMixer1SolidContent7">원본!$G$39</definedName>
-    <definedName name="pdMixer1StartTime1">원본!$K$33</definedName>
-    <definedName name="pdMixer1StartTime2">원본!$K$34</definedName>
-    <definedName name="pdMixer1StartTime3">원본!$K$35</definedName>
-    <definedName name="pdMixer1StartTime4">원본!$K$36</definedName>
-    <definedName name="pdMixer1StartTime5">원본!$K$37</definedName>
-    <definedName name="pdMixer1StartTime6">원본!$K$38</definedName>
-    <definedName name="pdMixer1StartTime7">원본!$K$39</definedName>
-    <definedName name="pdMixer1Temp1">원본!$H$33</definedName>
-    <definedName name="pdMixer1Temp2">원본!$H$34</definedName>
-    <definedName name="pdMixer1Temp3">원본!$H$35</definedName>
-    <definedName name="pdMixer1Temp4">원본!$H$36</definedName>
-    <definedName name="pdMixer1Temp5">원본!$H$37</definedName>
-    <definedName name="pdMixer1Temp6">원본!$H$38</definedName>
-    <definedName name="pdMixer1Temp7">원본!$H$39</definedName>
-    <definedName name="pdMixer2EndTime1">원본!$L$41</definedName>
-    <definedName name="pdMixer2EndTime2">원본!$L$42</definedName>
-    <definedName name="pdMixer2EndTime3">원본!$L$43</definedName>
-    <definedName name="pdMixer2EndTime4">원본!$L$44</definedName>
-    <definedName name="pdMixer2EndTime5">원본!$L$45</definedName>
-    <definedName name="pdMixer2Input1">원본!$E$41</definedName>
-    <definedName name="pdMixer2Input2">원본!$E$42</definedName>
-    <definedName name="pdMixer2Input3">원본!$E$43</definedName>
-    <definedName name="pdMixer2Input4">원본!$E$44</definedName>
-    <definedName name="pdMixer2Input5">원본!$E$45</definedName>
-    <definedName name="pdMixer2InputRate1">원본!$F$41</definedName>
-    <definedName name="pdMixer2InputRate2">원본!$F$42</definedName>
-    <definedName name="pdMixer2InputRate3">원본!$F$43</definedName>
-    <definedName name="pdMixer2InputRate4">원본!$F$44</definedName>
-    <definedName name="pdMixer2InputRate5">원본!$F$45</definedName>
-    <definedName name="pdMixer2Name">원본!$A$41</definedName>
-    <definedName name="pdMixer2RpmHigh1">원본!$J$41</definedName>
-    <definedName name="pdMixer2RpmHigh2">원본!$J$42</definedName>
-    <definedName name="pdMixer2RpmHigh3">원본!$J$43</definedName>
-    <definedName name="pdMixer2RpmHigh4">원본!$J$44</definedName>
-    <definedName name="pdMixer2RpmHigh5">원본!$J$45</definedName>
-    <definedName name="pdMixer2RpmLow1">원본!$I$41</definedName>
-    <definedName name="pdMixer2RpmLow2">원본!$I$42</definedName>
-    <definedName name="pdMixer2RpmLow3">원본!$I$43</definedName>
-    <definedName name="pdMixer2RpmLow4">원본!$I$44</definedName>
-    <definedName name="pdMixer2RpmLow5">원본!$I$45</definedName>
-    <definedName name="pdMixer2SolidContent1">원본!$G$41</definedName>
-    <definedName name="pdMixer2SolidContent2">원본!$G$42</definedName>
-    <definedName name="pdMixer2SolidContent3">원본!$G$43</definedName>
-    <definedName name="pdMixer2SolidContent4">원본!$G$44</definedName>
-    <definedName name="pdMixer2SolidContent5">원본!$G$45</definedName>
-    <definedName name="pdMixer2StartTime1">원본!$K$41</definedName>
-    <definedName name="pdMixer2StartTime2">원본!$K$42</definedName>
-    <definedName name="pdMixer2StartTime3">원본!$K$43</definedName>
-    <definedName name="pdMixer2StartTime4">원본!$K$44</definedName>
-    <definedName name="pdMixer2StartTime5">원본!$K$45</definedName>
-    <definedName name="pdMixer2Temp1">원본!$H$41</definedName>
-    <definedName name="pdMixer2Temp2">원본!$H$42</definedName>
-    <definedName name="pdMixer2Temp3">원본!$H$43</definedName>
-    <definedName name="pdMixer2Temp4">원본!$H$44</definedName>
-    <definedName name="pdMixer2Temp5">원본!$H$45</definedName>
-    <definedName name="pdMixer3EndTime1">원본!$L$47</definedName>
-    <definedName name="pdMixer3Input1">원본!$E$47</definedName>
-    <definedName name="pdMixer3InputRate1">원본!$F$47</definedName>
-    <definedName name="pdMixer3Name">원본!$A$47</definedName>
-    <definedName name="pdMixer3RpmHigh1">원본!$J$47</definedName>
-    <definedName name="pdMixer3RpmLow1">원본!$I$47</definedName>
-    <definedName name="pdMixer3SolidContent1">원본!$G$47</definedName>
-    <definedName name="pdMixer3StartTime1">원본!$K$47</definedName>
-    <definedName name="pdMixer3Temp1">원본!$H$47</definedName>
-    <definedName name="pdMixer4EndTime1">원본!$L$49</definedName>
-    <definedName name="pdMixer4Input1">원본!$E$49</definedName>
-    <definedName name="pdMixer4InputRate1">원본!$F$49</definedName>
-    <definedName name="pdMixer4Name">원본!$A$49</definedName>
-    <definedName name="pdMixer4RpmHigh1">원본!$J$49</definedName>
-    <definedName name="pdMixer4RpmLow1">원본!$I$49</definedName>
-    <definedName name="pdMixer4SolidContent1">원본!$G$49</definedName>
-    <definedName name="pdMixer4StartTime1">원본!$K$49</definedName>
-    <definedName name="pdMixer4Temp1">원본!$H$49</definedName>
+    <definedName name="pdMixer1EndTime1">원본!$L$32</definedName>
+    <definedName name="pdMixer1EndTime2">원본!$L$33</definedName>
+    <definedName name="pdMixer1EndTime3">원본!$L$34</definedName>
+    <definedName name="pdMixer1EndTime4">원본!$L$35</definedName>
+    <definedName name="pdMixer1EndTime5">원본!$L$36</definedName>
+    <definedName name="pdMixer1EndTime6">원본!$L$37</definedName>
+    <definedName name="pdMixer1EndTime7">원본!$L$38</definedName>
+    <definedName name="pdMixer1Input1">원본!$E$32</definedName>
+    <definedName name="pdMixer1Input2">원본!$E$33</definedName>
+    <definedName name="pdMixer1Input3">원본!$E$34</definedName>
+    <definedName name="pdMixer1Input4">원본!$E$35</definedName>
+    <definedName name="pdMixer1Input5">원본!$E$36</definedName>
+    <definedName name="pdMixer1Input6">원본!$E$37</definedName>
+    <definedName name="pdMixer1Input7">원본!$E$38</definedName>
+    <definedName name="pdMixer1InputRate1">원본!$F$32</definedName>
+    <definedName name="pdMixer1InputRate2">원본!$F$33</definedName>
+    <definedName name="pdMixer1InputRate3">원본!$F$34</definedName>
+    <definedName name="pdMixer1InputRate4">원본!$F$35</definedName>
+    <definedName name="pdMixer1InputRate5">원본!$F$36</definedName>
+    <definedName name="pdMixer1InputRate6">원본!$F$37</definedName>
+    <definedName name="pdMixer1InputRate7">원본!$F$38</definedName>
+    <definedName name="pdMixer1Name">원본!$A$32</definedName>
+    <definedName name="pdMixer1RpmHigh1">원본!$J$32</definedName>
+    <definedName name="pdMixer1RpmHigh2">원본!$J$33</definedName>
+    <definedName name="pdMixer1RpmHigh3">원본!$J$34</definedName>
+    <definedName name="pdMixer1RpmHigh4">원본!$J$35</definedName>
+    <definedName name="pdMixer1RpmHigh5">원본!$J$36</definedName>
+    <definedName name="pdMixer1RpmHigh6">원본!$J$37</definedName>
+    <definedName name="pdMixer1RpmHigh7">원본!$J$38</definedName>
+    <definedName name="pdMixer1RpmLow1">원본!$I$32</definedName>
+    <definedName name="pdMixer1RpmLow2">원본!$I$33</definedName>
+    <definedName name="pdMixer1RpmLow3">원본!$I$34</definedName>
+    <definedName name="pdMixer1RpmLow4">원본!$I$35</definedName>
+    <definedName name="pdMixer1RpmLow5">원본!$I$36</definedName>
+    <definedName name="pdMixer1RpmLow6">원본!$I$37</definedName>
+    <definedName name="pdMixer1RpmLow7">원본!$I$38</definedName>
+    <definedName name="pdMixer1SolidContent1">원본!$G$32</definedName>
+    <definedName name="pdMixer1SolidContent2">원본!$G$33</definedName>
+    <definedName name="pdMixer1SolidContent3">원본!$G$34</definedName>
+    <definedName name="pdMixer1SolidContent4">원본!$G$35</definedName>
+    <definedName name="pdMixer1SolidContent5">원본!$G$36</definedName>
+    <definedName name="pdMixer1SolidContent6">원본!$G$37</definedName>
+    <definedName name="pdMixer1SolidContent7">원본!$G$38</definedName>
+    <definedName name="pdMixer1StartTime1">원본!$K$32</definedName>
+    <definedName name="pdMixer1StartTime2">원본!$K$33</definedName>
+    <definedName name="pdMixer1StartTime3">원본!$K$34</definedName>
+    <definedName name="pdMixer1StartTime4">원본!$K$35</definedName>
+    <definedName name="pdMixer1StartTime5">원본!$K$36</definedName>
+    <definedName name="pdMixer1StartTime6">원본!$K$37</definedName>
+    <definedName name="pdMixer1StartTime7">원본!$K$38</definedName>
+    <definedName name="pdMixer1Temp1">원본!$H$32</definedName>
+    <definedName name="pdMixer1Temp2">원본!$H$33</definedName>
+    <definedName name="pdMixer1Temp3">원본!$H$34</definedName>
+    <definedName name="pdMixer1Temp4">원본!$H$35</definedName>
+    <definedName name="pdMixer1Temp5">원본!$H$36</definedName>
+    <definedName name="pdMixer1Temp6">원본!$H$37</definedName>
+    <definedName name="pdMixer1Temp7">원본!$H$38</definedName>
+    <definedName name="pdMixer2EndTime1">원본!$L$40</definedName>
+    <definedName name="pdMixer2EndTime2">원본!$L$41</definedName>
+    <definedName name="pdMixer2EndTime3">원본!$L$42</definedName>
+    <definedName name="pdMixer2EndTime4">원본!$L$43</definedName>
+    <definedName name="pdMixer2EndTime5">원본!$L$44</definedName>
+    <definedName name="pdMixer2Input1">원본!$E$40</definedName>
+    <definedName name="pdMixer2Input2">원본!$E$41</definedName>
+    <definedName name="pdMixer2Input3">원본!$E$42</definedName>
+    <definedName name="pdMixer2Input4">원본!$E$43</definedName>
+    <definedName name="pdMixer2Input5">원본!$E$44</definedName>
+    <definedName name="pdMixer2InputRate1">원본!$F$40</definedName>
+    <definedName name="pdMixer2InputRate2">원본!$F$41</definedName>
+    <definedName name="pdMixer2InputRate3">원본!$F$42</definedName>
+    <definedName name="pdMixer2InputRate4">원본!$F$43</definedName>
+    <definedName name="pdMixer2InputRate5">원본!$F$44</definedName>
+    <definedName name="pdMixer2Name">원본!$A$40</definedName>
+    <definedName name="pdMixer2RpmHigh1">원본!$J$40</definedName>
+    <definedName name="pdMixer2RpmHigh2">원본!$J$41</definedName>
+    <definedName name="pdMixer2RpmHigh3">원본!$J$42</definedName>
+    <definedName name="pdMixer2RpmHigh4">원본!$J$43</definedName>
+    <definedName name="pdMixer2RpmHigh5">원본!$J$44</definedName>
+    <definedName name="pdMixer2RpmLow1">원본!$I$40</definedName>
+    <definedName name="pdMixer2RpmLow2">원본!$I$41</definedName>
+    <definedName name="pdMixer2RpmLow3">원본!$I$42</definedName>
+    <definedName name="pdMixer2RpmLow4">원본!$I$43</definedName>
+    <definedName name="pdMixer2RpmLow5">원본!$I$44</definedName>
+    <definedName name="pdMixer2SolidContent1">원본!$G$40</definedName>
+    <definedName name="pdMixer2SolidContent2">원본!$G$41</definedName>
+    <definedName name="pdMixer2SolidContent3">원본!$G$42</definedName>
+    <definedName name="pdMixer2SolidContent4">원본!$G$43</definedName>
+    <definedName name="pdMixer2SolidContent5">원본!$G$44</definedName>
+    <definedName name="pdMixer2StartTime1">원본!$K$40</definedName>
+    <definedName name="pdMixer2StartTime2">원본!$K$41</definedName>
+    <definedName name="pdMixer2StartTime3">원본!$K$42</definedName>
+    <definedName name="pdMixer2StartTime4">원본!$K$43</definedName>
+    <definedName name="pdMixer2StartTime5">원본!$K$44</definedName>
+    <definedName name="pdMixer2Temp1">원본!$H$40</definedName>
+    <definedName name="pdMixer2Temp2">원본!$H$41</definedName>
+    <definedName name="pdMixer2Temp3">원본!$H$42</definedName>
+    <definedName name="pdMixer2Temp4">원본!$H$43</definedName>
+    <definedName name="pdMixer2Temp5">원본!$H$44</definedName>
+    <definedName name="pdMixer3EndTime1">원본!$L$46</definedName>
+    <definedName name="pdMixer3Input1">원본!$E$46</definedName>
+    <definedName name="pdMixer3InputRate1">원본!$F$46</definedName>
+    <definedName name="pdMixer3Name">원본!$A$46</definedName>
+    <definedName name="pdMixer3RpmHigh1">원본!$J$46</definedName>
+    <definedName name="pdMixer3RpmLow1">원본!$I$46</definedName>
+    <definedName name="pdMixer3SolidContent1">원본!$G$46</definedName>
+    <definedName name="pdMixer3StartTime1">원본!$K$46</definedName>
+    <definedName name="pdMixer3Temp1">원본!$H$46</definedName>
+    <definedName name="pdMixer4EndTime1">원본!$L$48</definedName>
+    <definedName name="pdMixer4Input1">원본!$E$48</definedName>
+    <definedName name="pdMixer4InputRate1">원본!$F$48</definedName>
+    <definedName name="pdMixer4Name">원본!$A$48</definedName>
+    <definedName name="pdMixer4RpmHigh1">원본!$J$48</definedName>
+    <definedName name="pdMixer4RpmLow1">원본!$I$48</definedName>
+    <definedName name="pdMixer4SolidContent1">원본!$G$48</definedName>
+    <definedName name="pdMixer4StartTime1">원본!$K$48</definedName>
+    <definedName name="pdMixer4Temp1">원본!$H$48</definedName>
     <definedName name="plant">원본!$G$9</definedName>
     <definedName name="productionId">원본!$G$7</definedName>
-    <definedName name="remark">원본!$A$55</definedName>
+    <definedName name="remark">원본!$A$54</definedName>
     <definedName name="reviewer">원본!$K$5</definedName>
-    <definedName name="safety">원본!$K$53</definedName>
+    <definedName name="safety">원본!$K$52</definedName>
     <definedName name="shift">원본!$K$9</definedName>
     <definedName name="solidContent">원본!$K$14</definedName>
-    <definedName name="solidContent1Dish">원본!$F$27</definedName>
-    <definedName name="solidContent1Dry">원본!$H$27</definedName>
-    <definedName name="solidContent1Percentage">원본!$I$27</definedName>
-    <definedName name="solidContent1Slurry">원본!$G$27</definedName>
-    <definedName name="solidContent2Dish">원본!$F$28</definedName>
-    <definedName name="solidContent2Dry">원본!$H$28</definedName>
-    <definedName name="solidContent2Percentage">원본!$I$28</definedName>
-    <definedName name="solidContent2Slurry">원본!$G$28</definedName>
-    <definedName name="solidContent3Dish">원본!$F$29</definedName>
-    <definedName name="solidContent3Dry">원본!$H$29</definedName>
-    <definedName name="solidContent3Percentage">원본!$I$29</definedName>
-    <definedName name="solidContent3Slurry">원본!$G$29</definedName>
-    <definedName name="solventAddActualInput">원본!$I$21</definedName>
-    <definedName name="solventAddPlannedInput">원본!$G$21</definedName>
-    <definedName name="solventTotalActualInput">원본!$I$22</definedName>
-    <definedName name="solventTotalPlannedInput">원본!$G$22</definedName>
-    <definedName name="tempHumi">원본!$C$53</definedName>
-    <definedName name="viscometer1EndTime">원본!$L$40</definedName>
-    <definedName name="viscometer1Input">원본!$E$40</definedName>
-    <definedName name="viscometer1InputRate">원본!$F$40</definedName>
-    <definedName name="viscometer1RpmHigh">원본!$J$40</definedName>
-    <definedName name="viscometer1RpmLow">원본!$I$40</definedName>
-    <definedName name="viscometer1SolidContent">원본!$G$40</definedName>
-    <definedName name="viscometer1StartTime">원본!$K$40</definedName>
-    <definedName name="viscometer1Temp">원본!$H$40</definedName>
-    <definedName name="viscometer2EndTime">원본!$L$46</definedName>
-    <definedName name="viscometer2Input">원본!$E$46</definedName>
-    <definedName name="viscometer2InputRate">원본!$F$46</definedName>
-    <definedName name="viscometer2RpmHigh">원본!$J$46</definedName>
-    <definedName name="viscometer2RpmLow">원본!$I$46</definedName>
-    <definedName name="viscometer2SolidContent">원본!$G$46</definedName>
-    <definedName name="viscometer2StartTime">원본!$K$46</definedName>
-    <definedName name="viscometer2Temp">원본!$H$46</definedName>
-    <definedName name="viscometer3EndTime">원본!$L$48</definedName>
-    <definedName name="viscometer3Input">원본!$E$48</definedName>
-    <definedName name="viscometer3InputRate">원본!$F$48</definedName>
-    <definedName name="viscometer3RpmHigh">원본!$J$48</definedName>
-    <definedName name="viscometer3RpmLow">원본!$I$48</definedName>
-    <definedName name="viscometer3SolidContent">원본!$G$48</definedName>
-    <definedName name="viscometer3StartTime">원본!$K$48</definedName>
-    <definedName name="viscometer3Temp">원본!$H$48</definedName>
-    <definedName name="viscosity4Label">원본!$B$29</definedName>
-    <definedName name="viscosity4Value">원본!$C$29</definedName>
-    <definedName name="viscosityAfterDefoaming">원본!$C$27</definedName>
-    <definedName name="viscosityAfterMixing">원본!$C$26</definedName>
-    <definedName name="viscosityAfterStabilization">원본!$C$28</definedName>
+    <definedName name="solidContent1Dish">원본!$F$26</definedName>
+    <definedName name="solidContent1Dry">원본!$H$26</definedName>
+    <definedName name="solidContent1Percentage">원본!$I$26</definedName>
+    <definedName name="solidContent1Slurry">원본!$G$26</definedName>
+    <definedName name="solidContent2Dish">원본!$F$27</definedName>
+    <definedName name="solidContent2Dry">원본!$H$27</definedName>
+    <definedName name="solidContent2Percentage">원본!$I$27</definedName>
+    <definedName name="solidContent2Slurry">원본!$G$27</definedName>
+    <definedName name="solidContent3Dish">원본!$F$28</definedName>
+    <definedName name="solidContent3Dry">원본!$H$28</definedName>
+    <definedName name="solidContent3Percentage">원본!$I$28</definedName>
+    <definedName name="solidContent3Slurry">원본!$G$28</definedName>
+    <definedName name="solventAddActualInput">원본!$I$20</definedName>
+    <definedName name="solventAddPlannedInput">원본!$G$20</definedName>
+    <definedName name="solventTotalActualInput">원본!$I$21</definedName>
+    <definedName name="solventTotalPlannedInput">원본!$G$21</definedName>
+    <definedName name="tempHumi">원본!$C$52</definedName>
+    <definedName name="viscometer1EndTime">원본!$L$39</definedName>
+    <definedName name="viscometer1Input">원본!$E$39</definedName>
+    <definedName name="viscometer1InputRate">원본!$F$39</definedName>
+    <definedName name="viscometer1RpmHigh">원본!$J$39</definedName>
+    <definedName name="viscometer1RpmLow">원본!$I$39</definedName>
+    <definedName name="viscometer1SolidContent">원본!$G$39</definedName>
+    <definedName name="viscometer1StartTime">원본!$K$39</definedName>
+    <definedName name="viscometer1Temp">원본!$H$39</definedName>
+    <definedName name="viscometer2EndTime">원본!$L$45</definedName>
+    <definedName name="viscometer2Input">원본!$E$45</definedName>
+    <definedName name="viscometer2InputRate">원본!$F$45</definedName>
+    <definedName name="viscometer2RpmHigh">원본!$J$45</definedName>
+    <definedName name="viscometer2RpmLow">원본!$I$45</definedName>
+    <definedName name="viscometer2SolidContent">원본!$G$45</definedName>
+    <definedName name="viscometer2StartTime">원본!$K$45</definedName>
+    <definedName name="viscometer2Temp">원본!$H$45</definedName>
+    <definedName name="viscometer3EndTime">원본!$L$47</definedName>
+    <definedName name="viscometer3Input">원본!$E$47</definedName>
+    <definedName name="viscometer3InputRate">원본!$F$47</definedName>
+    <definedName name="viscometer3RpmHigh">원본!$J$47</definedName>
+    <definedName name="viscometer3RpmLow">원본!$I$47</definedName>
+    <definedName name="viscometer3SolidContent">원본!$G$47</definedName>
+    <definedName name="viscometer3StartTime">원본!$K$47</definedName>
+    <definedName name="viscometer3Temp">원본!$H$47</definedName>
+    <definedName name="viscosity4Label">원본!$B$28</definedName>
+    <definedName name="viscosity4Value">원본!$C$28</definedName>
+    <definedName name="viscosityAfterDefoaming">원본!$C$26</definedName>
+    <definedName name="viscosityAfterMixing">원본!$C$25</definedName>
+    <definedName name="viscosityAfterStabilization">원본!$C$27</definedName>
     <definedName name="worker">원본!$K$7</definedName>
     <definedName name="writer">원본!$J$5</definedName>
   </definedNames>
@@ -258,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>슬러리 믹싱 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -324,14 +320,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>투입량_설계(kg)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>투입량_실제(kg)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Solide Content (%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -413,11 +401,6 @@
   </si>
   <si>
     <t>프로세스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>투입량
-실제(kg)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -556,10 +539,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>바인더용액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Add</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -569,6 +548,19 @@
   </si>
   <si>
     <t>Binder Solution (%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입량_설계(g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입량_실제(g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입량
+실제(g)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,10 +868,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,25 +910,28 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1005,13 +1030,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,10 +1377,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,17 +1389,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1389,434 +1411,440 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="43" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="43" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="42"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="A22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -1830,122 +1858,118 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="2">
         <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="2">
-        <v>2</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
+      <c r="A29" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="J31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="42"/>
+      <c r="L31" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1957,13 +1981,13 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1975,13 +1999,13 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1993,13 +2017,13 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2011,13 +2035,13 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2029,14 +2053,12 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="43" t="s">
         <v>50</v>
       </c>
+      <c r="D38" s="44"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2047,46 +2069,48 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="33"/>
+      <c r="A39" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="44"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="33"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2098,13 +2122,13 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2116,13 +2140,13 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2134,14 +2158,12 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="44"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2152,12 +2174,14 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="33"/>
+      <c r="A45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="44"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2168,14 +2192,12 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2186,12 +2208,14 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="A47" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="44"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2202,14 +2226,12 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="32" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2220,219 +2242,203 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="34" t="s">
+      <c r="A49" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="F50" s="13"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="29"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="41"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="11" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="11" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L51" s="30"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="41"/>
+      <c r="I52" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L53" s="30"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="29"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="34"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="114">
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
@@ -2467,77 +2473,76 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A33:B39"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B45"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="A55:L61"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="K14:L17"/>
-    <mergeCell ref="K20:L22"/>
-    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="K14:L16"/>
+    <mergeCell ref="A54:L60"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
@@ -2548,13 +2553,9 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/templates/worklog/02.Slurry.xlsx
+++ b/data/templates/worklog/02.Slurry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8EBA8-FD76-4559-8E9E-0A8C304331CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6A7DA-1E85-47E3-AC93-3532816AAD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
+    <workbookView xWindow="1440" yWindow="525" windowWidth="14595" windowHeight="13965" xr2:uid="{D79008F3-FFA4-4AF2-A7AA-04C7085C44F6}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -868,52 +868,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,82 +1009,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,8 +1379,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1389,17 +1389,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,374 +1411,374 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="54" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="54" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="54" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="54" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="53" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="53"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1787,8 +1787,8 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1807,10 +1807,10 @@
       <c r="J25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1819,8 +1819,8 @@
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2">
         <v>1</v>
       </c>
@@ -1841,8 +1841,8 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2">
         <v>2</v>
       </c>
@@ -1861,8 +1861,8 @@
         <v>4</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2">
         <v>3</v>
       </c>
@@ -1877,60 +1877,60 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="51" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="53"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="4" t="s">
         <v>42</v>
       </c>
@@ -1945,8 +1945,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1981,8 +1981,8 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1999,8 +1999,8 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2017,8 +2017,8 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2035,8 +2035,8 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2053,12 +2053,12 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="43" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2069,14 +2069,14 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2086,8 +2086,8 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2104,8 +2104,8 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2122,8 +2122,8 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
@@ -2140,8 +2140,8 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2158,12 +2158,12 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="43" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="44"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2174,14 +2174,14 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="43" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="44"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2192,12 +2192,12 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2208,14 +2208,14 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="43" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2226,12 +2226,12 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="45" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2242,278 +2242,213 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="40"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="42" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="13" t="s">
+      <c r="D50" s="54"/>
+      <c r="E50" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="13" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="42" t="s">
+      <c r="J50" s="20"/>
+      <c r="K50" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="L50" s="41"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="40"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="41" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="13" t="s">
+      <c r="D52" s="54"/>
+      <c r="E52" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="41" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="13" t="s">
+      <c r="H52" s="54"/>
+      <c r="I52" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="41" t="s">
+      <c r="J52" s="20"/>
+      <c r="K52" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="L52" s="41"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="34"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="50"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="34"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="34"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="37"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="K14:L16"/>
     <mergeCell ref="A54:L60"/>
     <mergeCell ref="A6:L6"/>
@@ -2538,21 +2473,86 @@
     <mergeCell ref="K19:L21"/>
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C23:L23"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
